--- a/src/attributions/attributions_ig_traj_491.xlsx
+++ b/src/attributions/attributions_ig_traj_491.xlsx
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.2307795771518228</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09556270362896736</v>
+        <v>-0.03893714392238969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02479753312377966</v>
+        <v>-0.0790570297153937</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.07342234521486189</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.165509366073027</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08089556226904888</v>
+        <v>-0.03086878090515586</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.006983016427603206</v>
+        <v>-0.08694281717343948</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1052,34 +1052,34 @@
         <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.05418364901246576</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>0.09944803416898601</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007386399759735244</v>
+        <v>0.02449588496801963</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02155327976876027</v>
+        <v>0.03118235792978538</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.06535466478640067</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1088,25 +1088,25 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.001373937841648899</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04679634141414617</v>
+        <v>0.06041458203621989</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.03632485065655734</v>
+        <v>-0.02999363267516154</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.06121859687066717</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
         <v>-0</v>
@@ -1115,52 +1115,52 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.04523580934702712</v>
       </c>
       <c r="AM2" t="n">
         <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.07676200210646099</v>
+        <v>-0.06713089000414145</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1496654551893407</v>
+        <v>-0.06858876405575698</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.007653746183751151</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.3915615056499445</v>
       </c>
       <c r="AV2" t="n">
         <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.06431001258354507</v>
+        <v>0.05243633228513025</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1638584326766658</v>
+        <v>0.1199543066279421</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.3507821771964382</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
@@ -1169,16 +1169,16 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>-0.0688068786726474</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.07773566685151581</v>
+        <v>-0.03047485744213313</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.05287107461545287</v>
+        <v>-0.2230187319886479</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,34 +1187,34 @@
         <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.006435816606749212</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0</v>
+        <v>0.04698117451755306</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.03642627282211713</v>
+        <v>0.09881584916474256</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.07486762626816987</v>
+        <v>0.0785646656477204</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.1429491138075951</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
         <v>-0</v>
@@ -1223,106 +1223,106 @@
         <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>0.2443680147104513</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.004812687399945292</v>
+        <v>0.0382519825349532</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.03924922345636277</v>
+        <v>0.006356020741280445</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1219702192462829</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0</v>
+        <v>-0.09940801769972421</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.04562636573221044</v>
+        <v>0.0309673116971904</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.003171704584645954</v>
+        <v>-0.03251164910554723</v>
       </c>
       <c r="CI2" t="n">
         <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.07922614471461004</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.01253231654785338</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.01667539447487393</v>
+        <v>-0.04594697679619025</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0008414922446265003</v>
+        <v>-0.08856300405769392</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0004514322717008866</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>-0.1030111916341365</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.03001622227182098</v>
+        <v>0.05435554961865166</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.01413908280478325</v>
+        <v>-0.03336670403422284</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.07471671261210508</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
         <v>-0</v>
@@ -1331,25 +1331,25 @@
         <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.05355684920843454</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.03989071801721319</v>
+        <v>0.07151423822548236</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.05813139202219602</v>
+        <v>-0.02130197713861474</v>
       </c>
       <c r="DJ2" t="n">
         <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.04830857334531249</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
@@ -1358,79 +1358,79 @@
         <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.05297435025804704</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.1347617484650739</v>
+        <v>-0.04034260683730621</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.03018282015364799</v>
+        <v>0.02785838461821313</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.06368012077256827</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.05643169248330348</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.01663808333934249</v>
+        <v>0.09269851500585051</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.07762164943890068</v>
+        <v>-0.01484660834966138</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003639014567833525</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.1363698997164579</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.1280956282611415</v>
+        <v>0.0314657466513526</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.03833056677741534</v>
+        <v>0.0375704791103169</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06061333911936018</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
@@ -1439,70 +1439,70 @@
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>0.007461119507492368</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.1230773004978663</v>
+        <v>0.02716828402535566</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.02358223969353587</v>
+        <v>0.03854603282399718</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.01897888482349437</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0</v>
+        <v>-0.09594713657040368</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.01800176284570754</v>
+        <v>0.04012953690312781</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.02692838399468309</v>
+        <v>-0.04097736891614029</v>
       </c>
       <c r="FC2" t="n">
         <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.07670971384099616</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.01321833745008183</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.00753288730135224</v>
+        <v>-0.002111678607017571</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.07426617841892137</v>
+        <v>-0.03430385608569621</v>
       </c>
       <c r="FL2" t="n">
         <v>-0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.145396956869512</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
@@ -1520,25 +1520,25 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>0.01619028532651895</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.06436336423376485</v>
+        <v>0.1189893939917338</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.06970905559350626</v>
+        <v>-0.02506275920440572</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.1295609724481754</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
@@ -1547,16 +1547,16 @@
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>0.01359656455615181</v>
       </c>
       <c r="GA2" t="n">
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.0004052635772824138</v>
+        <v>-0.006028169501381263</v>
       </c>
       <c r="GC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD2" t="n">
         <v>0</v>
@@ -1565,579 +1565,579 @@
         <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.006458261984622743</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0.03719548718424318</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.256618138114229</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02937419672705811</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09656543259075846</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1450458206165232</v>
+        <v>0.04303188103523301</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02470191359034155</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0.1342394752427075</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.002500760250682973</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.1080660719282006</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03409457436160704</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08337848085675889</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1755794662158024</v>
+        <v>-0.06096884873333965</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.02013597667956657</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0.1136084108705026</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.03722704517840898</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.01098722573198602</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.05531596695426082</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03933348894344527</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.1272312457553183</v>
+        <v>-0.06622413331428868</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03113909483817949</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>-0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>-0.04697038673769882</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0.03423294441845252</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.1775860095708144</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.04222410267325912</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02733884876147897</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1056025135320691</v>
+        <v>0.1227818140655747</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.0375021986440481</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0.1598779287196938</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>0.005077501464999611</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.01407821865297684</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.02747517087449963</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.07463866483549748</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.01951549442305026</v>
+        <v>-0.03428356275448115</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.006535691935252035</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>-0.06737130877644433</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0.08934597208931021</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.315818123256425</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.019131998792936</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1262561844975026</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.05035254120302202</v>
+        <v>0.3218943498501637</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.02493389971624712</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0</v>
+        <v>-0.1826301035545321</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>-0.04262846709665378</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0.06719806846061531</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.01002329444160121</v>
+        <v>-0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1487954783627074</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.1954288247100642</v>
+        <v>-0.1704947739084517</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.06791143749926939</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>-0.07483311341001365</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>0.007948375537540769</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>-0.03353318504870522</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.115659817872077</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.09480142775724359</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1522381600533163</v>
+        <v>0.2125680513318001</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.1200007060566249</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
         <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0</v>
+        <v>0.08083170860251938</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>0.02639609466969007</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.1713618361097054</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.01773915099122426</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.02151843169206681</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.1374271999323177</v>
+        <v>0.06400196626112649</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0.03888766583066983</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>-0.08432780349444888</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>-0.024497634786882</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.1048340364332778</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.01254992211325487</v>
+        <v>-0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0.07095633855282917</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.03531833800867362</v>
+        <v>-0.02493152777595641</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.01973831436529139</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0.09888491252000325</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0.02253383370489659</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.01310025397324319</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.0240855997065452</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.01824002515072672</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.0228299880786043</v>
+        <v>-0.05126990691560068</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.01233953150726077</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0</v>
+        <v>-0.02125141845091224</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0</v>
+        <v>-0.01843381089789205</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.1263828714218179</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.01475141488456711</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.06433913985636117</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.06149686122549073</v>
+        <v>-0.03513844301329987</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0266786183620881</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0</v>
+        <v>0.06594574662818373</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>0.08124476109220988</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.4673530829331953</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.113074605846633</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.1206373528968517</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.1175089240706432</v>
+        <v>0.1625381504552946</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.005354622250914803</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0</v>
+        <v>-0.04986165534351507</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>-0.00438880770113148</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>-0.1074460636015915</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.03017895711581243</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.0791111480714712</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.07680317545758972</v>
+        <v>0.006189952439991288</v>
       </c>
       <c r="DS3" t="n">
         <v>-0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.01824186571167937</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>0.04229814346375561</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.0330241620077119</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.1357139580626478</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.02097697172552281</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.006932958523036735</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.134983643403736</v>
+        <v>0.004745984985528289</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.02155589270482685</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0.06538079161508446</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>-0.01945804909035395</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>0.0399061306693724</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.01381751664125093</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.06447586138347312</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02474948787415233</v>
+        <v>0.03138987757804712</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.06197713097574774</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0</v>
+        <v>0.1187049277437411</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>0.04184490476874161</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>0.1085693127680043</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.05097088787774273</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.03403522370921828</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.06038049007816125</v>
+        <v>0.1166685244899314</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.06076133582481294</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0.01247644247527697</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>-0.02025717017285107</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.1321889772790297</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.007635399498746673</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.04963696116152555</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.06114247390955829</v>
+        <v>-0.05994751300308227</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.02496121081630336</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0.02432746457391994</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>-0.05114582507016178</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.06374890986024977</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.05985365864220599</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.1745981171544359</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.0401963724542521</v>
+        <v>-0.06960990716933484</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.05974783044589665</v>
+        <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>0.03641544054919556</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>0.1131627059782436</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>0.03994851629218664</v>
       </c>
       <c r="FR3" t="n">
-        <v>-5.014280180630292e-06</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0.03787608197764206</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.04829636507782566</v>
+        <v>-0.09722116268398573</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.06761051426478898</v>
+        <v>-0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0</v>
+        <v>-0.002949043049378914</v>
       </c>
       <c r="FY3" t="n">
-        <v>-0</v>
+        <v>0.00450972188790238</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>-0.147123101428963</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.09918889066717358</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02948128869599185</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.002004292699260023</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0</v>
+        <v>0.1275938979535992</v>
       </c>
     </row>
     <row r="4">
@@ -2145,49 +2145,49 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.518718336425955</v>
+        <v>0.3207047689043198</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04879642273800967</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08805747588980195</v>
+        <v>-0.05695260834035291</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.2334088116172841</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.4866901701050488</v>
+        <v>0.2535410093269443</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.01626110331743739</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09067867062171901</v>
+        <v>-0.03794430506787212</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.2106922256821722</v>
       </c>
       <c r="P4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
@@ -2196,28 +2196,28 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05080495258255139</v>
+        <v>0.03401197123786172</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1772080797128904</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07576126165244385</v>
+        <v>-0.0291873136103318</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>-0.03989610107597789</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -2226,19 +2226,19 @@
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.311031269725653</v>
+        <v>0.04855153806240411</v>
       </c>
       <c r="AD4" t="n">
         <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.07663735178503001</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1638756808768564</v>
+        <v>-0.0532343884415455</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.01916567666853537</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
@@ -2253,103 +2253,103 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.2928131779089265</v>
+        <v>0.1092324835994158</v>
       </c>
       <c r="AM4" t="n">
         <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01312189621933401</v>
+        <v>-0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.06485410498968275</v>
+        <v>0.05838664747937292</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.135102156883607</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.6717292735507798</v>
+        <v>0.4252372622674989</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.1819792897762836</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.08021717792104041</v>
+        <v>-0.02895056407033319</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.1592024353740707</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.1754479361570414</v>
+        <v>0.1714042579743998</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.109208964870957</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.06609292945801451</v>
+        <v>-0.0935795822586353</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>-0.1426789201118063</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.03814981413231516</v>
+        <v>0.05257613470647306</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2044639942138197</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.177606735596482</v>
+        <v>0.04421269409588068</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.0265045761901997</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
@@ -2358,76 +2358,76 @@
         <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.4257848568759933</v>
+        <v>0.1957616163758044</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.06282593423684671</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.03329057578740581</v>
+        <v>-0.01490032092946012</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.1276045673088956</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.2756904186222134</v>
+        <v>-0.1107549642760581</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.04194118745916562</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.08464505948214554</v>
+        <v>-0.001237338553367463</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.07637107422821707</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.06235819886303883</v>
+        <v>-0.03058837092295687</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.005034684567496278</v>
+        <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.07416801948116167</v>
+        <v>0.002693403843497691</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>-0.02916297288239184</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
@@ -2436,28 +2436,28 @@
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.2244059535539006</v>
+        <v>-0.09123631773166443</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.03696119790628136</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.07128782289711785</v>
+        <v>0.01231108474140291</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.1010435431513922</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
         <v>-0</v>
@@ -2469,19 +2469,19 @@
         <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.05222406918305308</v>
+        <v>-0.07466079988365953</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.05675779131257767</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.178898944366498</v>
+        <v>0.09233567837374278</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>-0.008709839096565735</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2490,28 +2490,28 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.3355167698314633</v>
+        <v>-0.06507223918770709</v>
       </c>
       <c r="DP4" t="n">
         <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01252831857015955</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.4392373350822107</v>
+        <v>-0.09308263416254632</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>-0.07089354428946885</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
         <v>0</v>
@@ -2523,76 +2523,76 @@
         <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.1641013038035616</v>
+        <v>-0.07337563347644199</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0.03463068245731722</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.02249126629302029</v>
+        <v>0.03699129181633923</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>0.0003308675402548039</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.4457171732408939</v>
+        <v>-0.108058719528355</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.09165134914870531</v>
+        <v>-0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.09263436271996775</v>
+        <v>0.08646183866807025</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.09202418295650659</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.245656257666623</v>
+        <v>0.03223665269645034</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.1220164454519228</v>
+        <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.1636990940268858</v>
+        <v>-0.06116527673499484</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0.03186224177811216</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
@@ -2601,106 +2601,106 @@
         <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.2124921126159066</v>
+        <v>-0.08082392547763242</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.02964410385897931</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.08798265283788081</v>
+        <v>0.006254607219130643</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.07974760680880731</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.2606738116438274</v>
+        <v>-0.008586129160002495</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.09324880935678025</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.09016582508956902</v>
+        <v>-0.003399749721923287</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.099371761333263</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.09355321131595656</v>
+        <v>-0.1912417133323097</v>
       </c>
       <c r="FR4" t="n">
         <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.02518474764756647</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.1623422906802336</v>
+        <v>0.02960361888252839</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.06542326809466885</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0.147928234892651</v>
+        <v>-0.04559603385863618</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.01856000387465317</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.05995302493201932</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
         <v>-0</v>
@@ -2711,46 +2711,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.2218831389103913</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.190226996196123</v>
+        <v>-0.06525454787307136</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02774969490701257</v>
+        <v>-0.02446085880476079</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1139596700112345</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1572592291468853</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1473816600594405</v>
+        <v>-0.1074615216054634</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01227305731760834</v>
+        <v>-0.02966212295780611</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2063037640957736</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -2768,52 +2768,52 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.09494658150128446</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.01227949379887996</v>
+        <v>0.002280543510814958</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1282588376794057</v>
+        <v>0.07524169789373567</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1125383106192747</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.04768600393813992</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1170277774209259</v>
+        <v>-0.01127444710502883</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.09954498515609418</v>
+        <v>-0.008791321568099426</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1015782359834155</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.01074537754199097</v>
       </c>
       <c r="AM5" t="n">
         <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1083763388546439</v>
+        <v>-0.05256190356804132</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1571668143131061</v>
+        <v>-0.06043121650708733</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.03864584337455134</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,295 +2849,295 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3423958299325714</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.07487502132113592</v>
+        <v>-0.01179909749845729</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.02419369083344031</v>
+        <v>0.145334578716768</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.3765999334535798</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.02489710923693309</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.1930124584028089</v>
+        <v>-0.0426452536703753</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.1027957342194407</v>
+        <v>-0.1170256314440643</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.0249022200021345</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.0656484818241805</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.06436069640059681</v>
+        <v>0.06225807700640124</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.03119818450139157</v>
+        <v>0.1219653817345663</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.1477898942967133</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.1613519063632852</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.06522083822886764</v>
+        <v>-0.006430511929518299</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.01055847093384361</v>
+        <v>0.09197139761945861</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.1594283778119459</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.07657539168474629</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.08043607919589975</v>
+        <v>0.02456204100357693</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.03674994377063343</v>
+        <v>-0.03101648252335065</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.06378315564086499</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.01671859851027752</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.02742258984941458</v>
+        <v>-0.03032833931584742</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.03392905767961322</v>
+        <v>-0.05449598879232894</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01853514445532787</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.07004423096279098</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.06319630548599647</v>
+        <v>0.03563646035862902</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.06290564117221659</v>
+        <v>-0.02472835197253782</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.06744212089179373</v>
+        <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.03662713308305435</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.02167792031991626</v>
+        <v>0.0609873149355175</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.1741667470857942</v>
+        <v>-0.0212884327326897</v>
       </c>
       <c r="DJ5" t="n">
         <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.006701806970530204</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.02955719377108113</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.08676754032787813</v>
+        <v>-0.07816758215792267</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0707039737071227</v>
+        <v>-0.009639987226219743</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.08318456820739163</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.04590316171323203</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0.01446728853238896</v>
+        <v>-0.05628604004719846</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.06415859279098488</v>
+        <v>-0.02454258372674894</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0.03995558930712369</v>
+        <v>0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.1132222203796588</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.1779807262202118</v>
+        <v>0.06905079172661625</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.1223105479178271</v>
+        <v>0.04419898417798781</v>
       </c>
       <c r="EK5" t="n">
         <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.09263001735314982</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>0</v>
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>0.04767318204429551</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.141057365898433</v>
+        <v>0.02007307828102033</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.02267209331467545</v>
+        <v>-0.03623052414374323</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.04446037223419046</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
@@ -3173,43 +3173,43 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.07057874456401313</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.05632332253939391</v>
+        <v>0.03652465287210874</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.04748855156409536</v>
+        <v>-0.02090273277099505</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.07955229476191913</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.021840949191103</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.03161493002127171</v>
+        <v>0.02554181217271488</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.03706965261162606</v>
+        <v>-0.04394882130843097</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
@@ -3218,34 +3218,34 @@
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.03783752998126888</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.01745788392746508</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.1171025516727274</v>
+        <v>0.1145429304146209</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.009833048051919153</v>
+        <v>-0.07289688862878832</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>-0.009165116807489956</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
         <v>0</v>
@@ -3254,28 +3254,28 @@
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.02224496018915954</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.01246406475106319</v>
+        <v>-0.03434642093029764</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.02011699972974785</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,25 +3283,25 @@
         <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1785719862848797</v>
+        <v>-0.1202742505190525</v>
       </c>
       <c r="C6" t="n">
         <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01597207542544936</v>
+        <v>-0.005260586745158256</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03527608214851433</v>
+        <v>0.01431247575646105</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.3780221090799563</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.009008549507767043</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,25 +3310,25 @@
         <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1361166946987152</v>
+        <v>-0.08967576334530256</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.00535096420465908</v>
+        <v>0.00187553594742461</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.02823669375503242</v>
+        <v>-0.0422742733357882</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.2817084495804351</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.01939927075991875</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -3337,160 +3337,160 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0340106463331726</v>
+        <v>0.07144907152135127</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.01761749220237377</v>
+        <v>0.07332547370094804</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02021680587554161</v>
+        <v>0.1218470052046158</v>
       </c>
       <c r="X6" t="n">
-        <v>-0</v>
+        <v>0.110001343811795</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.0323842382587561</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1051851548596827</v>
+        <v>0.004433043149069055</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.01724628734844486</v>
+        <v>-0.005071248234526194</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01691949213161133</v>
+        <v>-0.0884627621294214</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>-0.02727939651981597</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.006215118069319297</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.07731628843847294</v>
+        <v>-0.04521804404800329</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.01695911926268671</v>
+        <v>-0.02858958893291007</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.01342046544722649</v>
+        <v>-0.09385906013417074</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>0.123442771377375</v>
       </c>
       <c r="AQ6" t="n">
         <v>-0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.005151871762818571</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1578697255206818</v>
+        <v>-0.06359310266224887</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0298246357127145</v>
+        <v>-0.03048910092752808</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.05806761059435032</v>
+        <v>0.1125769929632053</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0</v>
+        <v>0.391496490158118</v>
       </c>
       <c r="AZ6" t="n">
         <v>-0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.03883179409312067</v>
+        <v>-0</v>
       </c>
       <c r="BB6" t="n">
         <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.09890771962971245</v>
+        <v>-0.2003740721785073</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.02530335267524831</v>
+        <v>0.08842521683361811</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.003391588942775474</v>
+        <v>-0.03285235936760575</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>0.1563833910668242</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.02451177935542436</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.002421637875059133</v>
+        <v>-0.1370592211440086</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.04358780383202011</v>
+        <v>0.08418543685556251</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.04223387662916966</v>
+        <v>-0.02434166697971262</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>-0.02457966432050576</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.05169266893015016</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
@@ -3499,133 +3499,133 @@
         <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.05546952167156516</v>
+        <v>-0.01572371649314238</v>
       </c>
       <c r="BW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.002924191302549759</v>
+        <v>0.08236908204012752</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.01208893406980143</v>
+        <v>0.08933817709967172</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.1540080749567542</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0.03425538365280412</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0.06104809019989639</v>
+        <v>0.05365322233530457</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.003630971619090794</v>
+        <v>0.01462748426398402</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01316867397483561</v>
+        <v>-0.01848526279772897</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>-0.1189966658491855</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.01228250474219331</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0004823167678622568</v>
+        <v>-0.001008656759996532</v>
       </c>
       <c r="CO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.00234944261797477</v>
+        <v>0.004596580246232615</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.02454743106727525</v>
+        <v>-0.0409264541722173</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>-0.01894511739289268</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>-0.001487934108124197</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0.06178441375851328</v>
+        <v>0.02265884084216054</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.005180658178813447</v>
+        <v>0.01319233792879373</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01360293535630465</v>
+        <v>-0.0219834531144458</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>-0.132375077794544</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.01143340210591893</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>-0.03426461943924968</v>
+        <v>0.09778039138955752</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.01249347178180672</v>
+        <v>-0.1545444500555137</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.01732558088340575</v>
+        <v>-0.1318138802051031</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>-0.02663336990386928</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0.0095784755526272</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>-0</v>
@@ -3634,52 +3634,52 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.006582793057480969</v>
+        <v>0.05185580106056043</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.006219850340606449</v>
+        <v>-0.07779822376961297</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.03205311704422473</v>
+        <v>0.03830129161893304</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.02623180014235922</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.02394298031845297</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.02625989832237735</v>
+        <v>0.01812741092320917</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.01827500363767314</v>
+        <v>0.03680138034709374</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.02602687702442998</v>
+        <v>0.0044660706061402</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.08645941716586165</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.002012479876237439</v>
+        <v>0</v>
       </c>
       <c r="EE6" t="n">
         <v>-0</v>
@@ -3688,52 +3688,52 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>-0.07581014934098286</v>
+        <v>-0.0107067856516978</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.01945133341604189</v>
+        <v>0.07145964797956697</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.04967785443863839</v>
+        <v>-0.01691379264975056</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0</v>
+        <v>-0.1372414504513389</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.02762595748002922</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0.04136868513053289</v>
+        <v>0.02777179760986482</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.03265145144232502</v>
+        <v>0.08432539398606216</v>
       </c>
       <c r="ES6" t="n">
-        <v>-0.01121024401935448</v>
+        <v>0.05268916759156719</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>-0.006034778500994276</v>
       </c>
       <c r="EU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.0120014691012797</v>
+        <v>-0</v>
       </c>
       <c r="EW6" t="n">
         <v>0</v>
@@ -3742,106 +3742,106 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>-0.05030509505184844</v>
+        <v>0.01688061356467228</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.004530285640620368</v>
+        <v>0.02094187642274728</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01079326195108118</v>
+        <v>-0.04992289103046275</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>-0.1226431300979952</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.02243457982192794</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.0332891852249098</v>
+        <v>0.08209028880258856</v>
       </c>
       <c r="FI6" t="n">
         <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.007786180519170497</v>
+        <v>0.06795702566002175</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.01910438041708997</v>
+        <v>-0.04853720866109908</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>-0.1283707880386293</v>
       </c>
       <c r="FM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.003932231083491794</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>-0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.02212868807000971</v>
+        <v>0.08636451073218916</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.08667700747089595</v>
+        <v>-0.01087369492814234</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.03838445392609749</v>
+        <v>-0.1719228294189757</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>-0.03653346769023175</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
-        <v>-0.0028005693504951</v>
+        <v>0</v>
       </c>
       <c r="FX6" t="n">
         <v>-0</v>
       </c>
       <c r="FY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>-0.01625465753113687</v>
+        <v>0.01673955448766197</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>-0.05064082191237966</v>
+        <v>0.0746382677999208</v>
       </c>
       <c r="GC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>0.106903269504374</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0.008412551696387887</v>
+        <v>-0</v>
       </c>
       <c r="GG6" t="n">
         <v>-0</v>
@@ -3849,28 +3849,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3960862238400129</v>
+        <v>0.1097944988056291</v>
       </c>
       <c r="C7" t="n">
         <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.09807018015409559</v>
+        <v>-0.02093762444485545</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1900160728297169</v>
+        <v>-0.06895013942223045</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>-0</v>
@@ -3879,25 +3879,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3558616730216382</v>
+        <v>0.08658429961889977</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05696350436479142</v>
+        <v>-0.01332086292876557</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2116455054190736</v>
+        <v>-0.0598673684067033</v>
       </c>
       <c r="P7" t="n">
         <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
         <v>-0</v>
@@ -3906,73 +3906,73 @@
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.09116229390003161</v>
+        <v>0.01522509612445713</v>
       </c>
       <c r="U7" t="n">
         <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.01004159116710581</v>
+        <v>-0.01386746115135591</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.1189794053625369</v>
+        <v>-0.01325886517548903</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.117339850754719</v>
+        <v>0.01698065468598606</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.04118518817057273</v>
+        <v>0.01655606355426052</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1683558207674163</v>
+        <v>0.0133554105440433</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.09295503424770644</v>
+        <v>0.008732371348820753</v>
       </c>
       <c r="AM7" t="n">
         <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.008756109644562514</v>
+        <v>0.006106891713810333</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.1154596466059513</v>
+        <v>-0.04241573869008061</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2669825490107988</v>
+        <v>0.09986092833658361</v>
       </c>
       <c r="AV7" t="n">
         <v>-0</v>
@@ -3996,10 +3996,10 @@
         <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.005852212965286614</v>
+        <v>0.0006423682481677598</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.1069986446040736</v>
+        <v>-0.07540413021089218</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
@@ -4008,52 +4008,52 @@
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.1817130299009797</v>
+        <v>0.06149378226141237</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.05156635444751557</v>
+        <v>-0.03419101506289174</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.00138091612248137</v>
+        <v>-0.04232287922094297</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.02608498082437976</v>
+        <v>0.0394051384013884</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1652963742412162</v>
+        <v>0.0143353797854996</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.2524550930762246</v>
+        <v>0.009285236152111256</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4068,34 +4068,34 @@
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.1326215995583773</v>
+        <v>0.05292083240395457</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.1778875741495207</v>
+        <v>-0.009491437313510183</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0.3080568576941547</v>
+        <v>-0.03712357641536285</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0.1254663611804751</v>
+        <v>-0.02828227658383355</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
@@ -4104,52 +4104,52 @@
         <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02590797391454181</v>
+        <v>0.001731823683661432</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0623649119589924</v>
+        <v>0.02278483859695817</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.03193888511150947</v>
+        <v>-0.003002913171880829</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.00623937466986876</v>
+        <v>0.0005680093720727954</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0.05885477492187758</v>
+        <v>-0.004551690212151735</v>
       </c>
       <c r="CS7" t="n">
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
         <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0.1064532944163093</v>
+        <v>-0.02242697222430126</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
@@ -4158,16 +4158,16 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.00320044413746686</v>
+        <v>-0.0009915750186827983</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.04575225934632855</v>
+        <v>0.0270540504324927</v>
       </c>
       <c r="DB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
@@ -4176,73 +4176,73 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.02810777973019444</v>
+        <v>-0.01093701439975773</v>
       </c>
       <c r="DG7" t="n">
         <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.07748776362727564</v>
+        <v>0.01098948196108129</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0.06682627424449301</v>
+        <v>0.02791694298072734</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
         <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.004579108024642155</v>
+        <v>-0.009399250736297391</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.01419777244710226</v>
+        <v>0.03042914271451878</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0.1449315359162601</v>
+        <v>-0.003008071120035352</v>
       </c>
       <c r="DT7" t="n">
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.06529303814074106</v>
+        <v>0.02823312049691954</v>
       </c>
       <c r="DY7" t="n">
         <v>-0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.03447945066809509</v>
+        <v>-0.009932367861490184</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0.02618067860403514</v>
+        <v>-0.0129485351744842</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
@@ -4251,25 +4251,25 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0.2345026022327109</v>
+        <v>-0.01742550158144157</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.1227556443088159</v>
+        <v>0.007455588785387394</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.09294003284532903</v>
+        <v>0.009248289153051408</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
@@ -4284,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0.009810858025865647</v>
+        <v>-0.008693193702365825</v>
       </c>
       <c r="EQ7" t="n">
         <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.00751091071587682</v>
+        <v>-0.008323031873037312</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.1587991731795712</v>
+        <v>0.01844899513821402</v>
       </c>
       <c r="EU7" t="n">
         <v>0</v>
@@ -4305,85 +4305,85 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0.1102618816566223</v>
+        <v>-0.02339592474909429</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.03376193294240724</v>
+        <v>0.006728107130028157</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.08214232327134426</v>
+        <v>0.02818889319622977</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0.05060074914243878</v>
+        <v>-0.002578128928866239</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.07186519175204209</v>
+        <v>-0.02176887909126025</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0975763632176347</v>
+        <v>0.03100994825920114</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0.05119900135914462</v>
+        <v>-0.008457826782753815</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
         <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.005132100599984341</v>
+        <v>0.008945701380717817</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0.008684400718203741</v>
+        <v>-0.001053673269432918</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
         <v>-0</v>
@@ -4392,25 +4392,25 @@
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0.00949150754980487</v>
+        <v>-0.01549910138829148</v>
       </c>
       <c r="GA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0.0354014714385653</v>
+        <v>-0.03576470712292852</v>
       </c>
       <c r="GE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG7" t="n">
         <v>-0</v>
@@ -4418,52 +4418,52 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.281796211918515</v>
+        <v>0.3383443405243972</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.10003273090748</v>
+        <v>-0.1505921141478772</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06538277083372486</v>
+        <v>-0.1155340187516716</v>
       </c>
       <c r="F8" t="n">
         <v>-0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
         <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2575628859134403</v>
+        <v>0.3066728729800095</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0593958322046835</v>
+        <v>-0.1173046619446357</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.03150371338904613</v>
+        <v>-0.1302415933612011</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4475,130 +4475,130 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.009459137053067116</v>
+        <v>0.08885819145904059</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01052549679986108</v>
+        <v>-0.01838692296302995</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1363252670617997</v>
+        <v>0.09415142377217792</v>
       </c>
       <c r="X8" t="n">
         <v>-0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>-0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1178346150562067</v>
+        <v>0.1484901053989108</v>
       </c>
       <c r="AD8" t="n">
         <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.05762118228604182</v>
+        <v>-0.01128518962678167</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03357596225491466</v>
+        <v>-0.01450723388530666</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.09454150353089492</v>
+        <v>0.01519318366141694</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.04425354032983971</v>
+        <v>-0.06222693325943632</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.001405623068201546</v>
+        <v>-0.09324359993508043</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>-0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT8" t="n">
         <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2913496725373481</v>
+        <v>0.4627236986800072</v>
       </c>
       <c r="AV8" t="n">
         <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.006850859806118886</v>
+        <v>-0.04563353365331899</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.02131113380892379</v>
+        <v>0.02023591216234698</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
         <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.07785265291105059</v>
+        <v>0.06574489792983257</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.04594480200101084</v>
+        <v>-0.06780758097916388</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.004066022307001082</v>
+        <v>-0.1025403724065054</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>-0</v>
@@ -4607,25 +4607,25 @@
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>-0.04613025336258044</v>
+        <v>0.1232012818008523</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0.05866483786419038</v>
+        <v>0.06552817040503883</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02343582044028372</v>
+        <v>0.1427478649561261</v>
       </c>
       <c r="BQ8" t="n">
         <v>-0</v>
       </c>
       <c r="BR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
         <v>-0</v>
@@ -4637,25 +4637,25 @@
         <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.1185273808681656</v>
+        <v>0.2763345974189239</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0.0365535290356787</v>
+        <v>-0.0307117811375514</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.05634603451946465</v>
+        <v>0.07348777372219852</v>
       </c>
       <c r="BZ8" t="n">
         <v>-0</v>
       </c>
       <c r="CA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
         <v>-0</v>
@@ -4664,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0.105034803996975</v>
+        <v>-0.0906046108478252</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.02316246721889543</v>
+        <v>0.02420751220147819</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.005365482128130132</v>
+        <v>0.01924390938378543</v>
       </c>
       <c r="CI8" t="n">
         <v>-0</v>
@@ -4682,55 +4682,55 @@
         <v>-0</v>
       </c>
       <c r="CK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL8" t="n">
         <v>-0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0.01838220445706424</v>
+        <v>-0.05467895913892484</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0.001331514573616381</v>
+        <v>-0.04856238429323619</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.06054302115528942</v>
+        <v>-0.06199016587200314</v>
       </c>
       <c r="CR8" t="n">
         <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU8" t="n">
         <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0.09926905394576965</v>
+        <v>-0.07745139893089138</v>
       </c>
       <c r="CX8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.02912690749500487</v>
+        <v>0.04052651410928596</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.01893527360154982</v>
+        <v>0.01185569518692343</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -4742,28 +4742,28 @@
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0.08528242009773168</v>
+        <v>0.006748183583846532</v>
       </c>
       <c r="DG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.03634533375302616</v>
+        <v>0.1241619162828152</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.01157324159396467</v>
+        <v>0.008626499400173885</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK8" t="n">
         <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
         <v>0</v>
@@ -4772,49 +4772,49 @@
         <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0.03795835291028021</v>
+        <v>-0.08042244526726273</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0.009345718800740728</v>
+        <v>-0.06703847540191057</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.03828522208520106</v>
+        <v>-0.0866073599479657</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT8" t="n">
         <v>-0</v>
       </c>
       <c r="DU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0.0719071660398508</v>
+        <v>-0.1153973068997162</v>
       </c>
       <c r="DY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0.01543696785266854</v>
+        <v>-0.02000673285354602</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.06308887965898141</v>
+        <v>-0.05628277720393418</v>
       </c>
       <c r="EB8" t="n">
         <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
@@ -4826,16 +4826,16 @@
         <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>-0.09722039442661425</v>
+        <v>-0.08699470789034841</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0422458468894878</v>
+        <v>0.07819054115150316</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.05499040909465557</v>
+        <v>0.1267367636414899</v>
       </c>
       <c r="EK8" t="n">
         <v>-0</v>
@@ -4847,25 +4847,25 @@
         <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>-0.0293984721091338</v>
+        <v>-0.06488676253561834</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0.04251340522902824</v>
+        <v>0.03603250621704569</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.008086826925198862</v>
+        <v>0.07523080342250033</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU8" t="n">
         <v>0</v>
@@ -4874,28 +4874,28 @@
         <v>-0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>-0.09762604238439239</v>
+        <v>-0.07787644460483426</v>
       </c>
       <c r="EZ8" t="n">
         <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.01954149148034579</v>
+        <v>0.04600623410447618</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.01404874361728445</v>
+        <v>0.02808985923135017</v>
       </c>
       <c r="FC8" t="n">
         <v>-0</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE8" t="n">
         <v>-0</v>
@@ -4907,16 +4907,16 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.05061761451233859</v>
+        <v>-0.1134464479910015</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.07696144654713664</v>
+        <v>0.05769299282695068</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.002602492732257066</v>
+        <v>-0.06666336431957523</v>
       </c>
       <c r="FL8" t="n">
         <v>-0</v>
@@ -4928,55 +4928,55 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0.01226136044175737</v>
+        <v>0.01644431841158716</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0.024529225715805</v>
+        <v>-0.02771690791957739</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.008662041648746645</v>
+        <v>-0.05309643694535925</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
         <v>0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0.07609253454225996</v>
+        <v>-0.05068129983594179</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>-0.02612575309217288</v>
+        <v>-0.01732920456701577</v>
       </c>
       <c r="GC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1959114401935108</v>
+        <v>0.1274105081172724</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1158655851938965</v>
+        <v>-0.09921172731217243</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1515839925506005</v>
+        <v>0.1007893604557608</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5014,46 +5014,46 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1811588076324142</v>
+        <v>0.1302787597856077</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1201310737475668</v>
+        <v>-0.03730910206144751</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08902138088442926</v>
+        <v>0.04637360139756862</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02047720632109054</v>
+        <v>0.0247996049666238</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.118349905830579</v>
+        <v>0.05977521739887892</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.001859769611995292</v>
+        <v>0.04768670488093518</v>
       </c>
       <c r="X9" t="n">
         <v>-0</v>
@@ -5065,22 +5065,22 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02284699566186019</v>
+        <v>-0.01852085957725397</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.000488447743790954</v>
+        <v>-0.01871132795936208</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0548103229958791</v>
+        <v>0.04216951160721504</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -5095,19 +5095,19 @@
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.08684747232207575</v>
+        <v>-0.01347344147126953</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.07884096299413218</v>
+        <v>-0.02018367403079253</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01863913383518677</v>
+        <v>-0.06810611634096259</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5119,52 +5119,52 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.122792454074577</v>
+        <v>0.09721437060501825</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.05683001103716869</v>
+        <v>-0.07575094777099746</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1193149105893687</v>
+        <v>0.1587530121051314</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.07484659870522042</v>
+        <v>0.1032721221389917</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.07530545761948597</v>
+        <v>0.00888506747563037</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.08522032766150682</v>
+        <v>0.0701353349805607</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -5173,64 +5173,64 @@
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.02938038974519393</v>
+        <v>0.05070689276073196</v>
       </c>
       <c r="BM9" t="n">
         <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.02931231193277915</v>
+        <v>0.01641265501799957</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01074572648084866</v>
+        <v>0.1044615937544579</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR9" t="n">
         <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.156007693248884</v>
+        <v>0.05050308571970946</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>-0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.0817007424951675</v>
+        <v>-0.01047944185756216</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.07564246822080641</v>
+        <v>0.08298591883400638</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.06233971624352809</v>
+        <v>-0.02788722047748494</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.02103731124903697</v>
+        <v>-0.01299306659463535</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.05621657003248867</v>
+        <v>-0.02769922872738519</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
@@ -5257,52 +5257,52 @@
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.02041576011618936</v>
+        <v>-0.01936828525116053</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO9" t="n">
         <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0003898204736303488</v>
+        <v>-0.05141081010287865</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.03953276277245543</v>
+        <v>-0.04738197198998675</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
         <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.05324558547962587</v>
+        <v>-0.01735213922875472</v>
       </c>
       <c r="CW9" t="n">
         <v>-0</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.007113178823760914</v>
+        <v>0.0009267408852489555</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.06677173065353996</v>
+        <v>-0.01824293895837805</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
         <v>-0</v>
@@ -5311,19 +5311,19 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.001338018292489244</v>
+        <v>-0.01330178546301631</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01387030226931276</v>
+        <v>0.07578372508899291</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.03367076516520249</v>
+        <v>-0.03497142387663174</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
@@ -5332,58 +5332,58 @@
         <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01360666744944651</v>
+        <v>-0.02322830444796386</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0.0168366695060906</v>
+        <v>0.04093374168895925</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0365471758396891</v>
+        <v>-0.06672453508734329</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.01685608028822292</v>
+        <v>-0.03309153563836304</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.009604557340801623</v>
+        <v>-0.02603474053528315</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01587577546507639</v>
+        <v>-0.02166553496663431</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.132023768102604</v>
+        <v>-0.01617213704917918</v>
       </c>
       <c r="EG9" t="n">
         <v>0</v>
@@ -5401,16 +5401,16 @@
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0132377348411561</v>
+        <v>0.01836038796581111</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.04696173721361172</v>
+        <v>-0.005579505243848418</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.02792426517737408</v>
+        <v>-0.0115898130128312</v>
       </c>
       <c r="EP9" t="n">
         <v>0</v>
@@ -5428,16 +5428,16 @@
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.04567487271094502</v>
+        <v>0.02220492024859829</v>
       </c>
       <c r="ES9" t="n">
-        <v>-0.04091064020066874</v>
+        <v>0.01320430470978085</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
@@ -5446,46 +5446,46 @@
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.05905898858256832</v>
+        <v>-0.01802046526578398</v>
       </c>
       <c r="EY9" t="n">
         <v>0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.01393725610016791</v>
+        <v>-0.006617917298961641</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.06338748632457784</v>
+        <v>-0.02527579663017472</v>
       </c>
       <c r="FC9" t="n">
         <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
         <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.06066468193641499</v>
+        <v>-0.01475778016365977</v>
       </c>
       <c r="FH9" t="n">
         <v>0</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.06780641973341472</v>
+        <v>0.03061832585381027</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.09902371898974954</v>
+        <v>-0.1031396213704524</v>
       </c>
       <c r="FL9" t="n">
         <v>0</v>
@@ -5494,40 +5494,40 @@
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
         <v>-0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0.02690377922961304</v>
+        <v>0.005702482928402975</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.06377941155399607</v>
+        <v>-0.00538569467564255</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.00190275091691999</v>
+        <v>0.05251849715824964</v>
       </c>
       <c r="FU9" t="n">
         <v>-0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.0623143672207099</v>
+        <v>0.01583913216176002</v>
       </c>
       <c r="FZ9" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.003127676824931736</v>
+        <v>-0.01073087389460605</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
@@ -5545,21 +5545,21 @@
         <v>0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
         <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -5637,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5664,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -5691,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -5718,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -5745,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -5799,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
@@ -5826,10 +5826,10 @@
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
@@ -5880,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG10" t="n">
         <v>0</v>
@@ -5907,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
@@ -5934,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
@@ -5961,10 +5961,10 @@
         <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH10" t="n">
         <v>0</v>
@@ -5988,10 +5988,10 @@
         <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ10" t="n">
         <v>0</v>
@@ -6015,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
@@ -6125,10 +6125,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6152,10 +6152,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6179,10 +6179,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -6206,10 +6206,10 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6233,10 +6233,10 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -6260,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -6287,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6314,10 +6314,10 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -6341,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -6368,10 +6368,10 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
@@ -6476,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6503,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY11" t="n">
         <v>0</v>
@@ -6530,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
@@ -6557,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
@@ -6694,25 +6694,25 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.164287956283635</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.4279231561641801</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.1589869469382828</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05072581141078168</v>
+        <v>-0.03660992565160615</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03062131079578846</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>-0</v>
@@ -6721,25 +6721,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1434309391091977</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.2785515514023302</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.2117245904837028</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.08029917554688629</v>
+        <v>-0.04132109131708741</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.006444476569640308</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -6748,52 +6748,52 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001745788741344068</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.1049091428271091</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0</v>
+        <v>-0.01446832405444884</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.04880346749652063</v>
+        <v>0.09932689289879507</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.05408309845830737</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01913313391005457</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.04167995967873333</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>-0.003692373712410086</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01899971918224637</v>
+        <v>-0.01337010712438213</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.04147987376773991</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -6802,133 +6802,133 @@
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.03504012478427306</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.00762882108756358</v>
       </c>
       <c r="AM12" t="n">
         <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.06779017628110375</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.01175481441164708</v>
+        <v>-0.05742277807217042</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.008910862741794971</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1057547912323021</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.397193304397688</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.0205385954559788</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01058459201659309</v>
+        <v>0.09850396812810494</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01825165282603914</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.04103177093982505</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.05598126319333698</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>-0.1732124450079039</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.03540342672424826</v>
+        <v>-0.1115140338875555</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.02226648134537834</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.02644624207731098</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.1129161934917709</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.0466178222852079</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0453436946599661</v>
+        <v>0.1676713820224182</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.01022258237026134</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.07043929826003516</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.1753781205997937</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.0178155021502691</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.01577592740444651</v>
+        <v>0.06902469514657732</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.01237360380615103</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
@@ -6937,25 +6937,25 @@
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.04698085890653428</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.09154625162828724</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>0.001066055415028815</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.01538922390959857</v>
+        <v>-0.01504294802723569</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0.0142574791240355</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
         <v>0</v>
@@ -6964,52 +6964,52 @@
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.007537865321378915</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.004418613229839737</v>
       </c>
       <c r="CO12" t="n">
         <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0</v>
+        <v>-0.08527387670721977</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.01269229439094454</v>
+        <v>-0.04920785941687961</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0.01795076054216943</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.04383302102541187</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.06416540034470133</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>0.03200906456610007</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.005146984578900817</v>
+        <v>-0.02319549863325032</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0.007993402050304037</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
         <v>-0</v>
@@ -7018,133 +7018,133 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0.004670603835870072</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.03773425050010301</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>0.04195238346698282</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.0009675787678467914</v>
+        <v>0.0747018921221935</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0.005068968240196544</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01465523105667836</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.06326358597731206</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>0.0200184902200059</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.02425126235345913</v>
+        <v>-0.04040089330052701</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.02981969169309619</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0.003357371890089517</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.09758314151223167</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0</v>
+        <v>-0.01487454470074861</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01636670987515628</v>
+        <v>0.03320343689284713</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0.003696467067814142</v>
+        <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.07330552677321067</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.08055139545154982</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>0.01058959640830271</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.006576023540250106</v>
+        <v>0.05741514176593135</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0.02405010307783965</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.01543435561151927</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.01002762274187602</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>0.01341904244143164</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0502659905780923</v>
+        <v>0.02359625069369509</v>
       </c>
       <c r="ET12" t="n">
         <v>0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.007182934649844154</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
         <v>0</v>
@@ -7153,132 +7153,132 @@
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.03986287565112414</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.06495968421901568</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0</v>
+        <v>-0.004441123833741585</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.004116169382669321</v>
+        <v>0.008467203535296319</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0.008157333648967731</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.04981164822361007</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.06264584782729475</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>-0.007555044852825596</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02446949475569999</v>
+        <v>0.04957299937506342</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.005484633299239547</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.01547740811278603</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.05378328263002635</v>
       </c>
       <c r="FR12" t="n">
         <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>0.01462006557752139</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.00579866166338458</v>
+        <v>-0.05027579147419141</v>
       </c>
       <c r="FU12" t="n">
         <v>-0</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.005376207164059173</v>
+        <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.02726786506966538</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.05742902244926062</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.1164042225091931</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.01881101288573868</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2009869511442507</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.1418150113890258</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387934754083691</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02142576037316046</v>
+        <v>-0.05212934777721806</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.0819161113298854</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7290,106 +7290,106 @@
         <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1853842571360153</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1192344406435505</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.07169202617594042</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.05234036860714238</v>
+        <v>-0.04095649869977917</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.07582251746744344</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.007035973476901662</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.01196876336721881</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.02322578299335335</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.05945805301075743</v>
+        <v>-0.006425497190614597</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.01325100171852773</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01009816102542185</v>
+        <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0.007264625703002387</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.002149478119195804</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02161890365568115</v>
+        <v>0.01855019913688282</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>0.007039344354325801</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.03075198789314302</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.007700401095348656</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.007782495034453769</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.01708444252695066</v>
+        <v>-0.01288604712207817</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.01279047310911076</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -7398,49 +7398,49 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0996069144347675</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.1046812517455351</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.0356695370508816</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.008344868828468495</v>
+        <v>-0.01851524363540282</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.02489005858091989</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.04848444320410263</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.04377291656431273</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.03059059739865388</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.026308142496587</v>
+        <v>-0.05406654001002854</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.06265376379386371</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -7449,52 +7449,52 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.01612666134337064</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.03975849246775683</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.02391468525024937</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.06019546635401316</v>
+        <v>0.02070067695915725</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.02039069701765887</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.08584673034216275</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.05136044246798737</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0.01447348987570204</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01853152502270903</v>
+        <v>-0.01168273282917597</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.008076658818782705</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
@@ -7506,160 +7506,160 @@
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.04864474959468362</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.0257638648647999</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.01982827008902271</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.004113331204227882</v>
+        <v>0.003725703995507794</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.02222007007704993</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.004998683010980255</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.005663063808694237</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0008389069264275997</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.03452772358931731</v>
+        <v>0.002952023210437925</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.01617253273866866</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.04439410866648762</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.01936055904928424</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.02059240871728993</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.0120332863509905</v>
+        <v>0.005348362761270307</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.02076653581258276</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0.006283965976145466</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.01504997554724089</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01917570995741876</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.02354958574930188</v>
+        <v>0.02224854463538814</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.008558497652296524</v>
       </c>
       <c r="DK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.002640875376821762</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.006262142993605922</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.003756007565011864</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01890169674404751</v>
+        <v>0.01764814668146044</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.00670030298383604</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
         <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0.004066153514127063</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.0377514139143583</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0.01082431759223368</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
         <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.00173963810376648</v>
+        <v>0.01755110630002733</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.01059528448898435</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7668,157 +7668,157 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.07312126524075323</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.0285969772375216</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.02143866206753036</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
         <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0002638597121221967</v>
+        <v>0.004972922079231677</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>0.01951201754018511</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.02062893186133134</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.008653519282402045</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0238658594311163</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.004467129071643273</v>
+        <v>0.005030109396400284</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.003537903002002638</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.0436586360628595</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.0203501709139148</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0183552193953339</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.007069887424831414</v>
+        <v>0.009312422251047356</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.02627371647542371</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.03833375157326234</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.01886967288879681</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.01697413849325211</v>
+        <v>0</v>
       </c>
       <c r="FJ13" t="n">
         <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0327988482024544</v>
+        <v>0.008232934798936815</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.01643699731229806</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.009218233779418539</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>0.004206610798787966</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.008111584181765998</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.02024879907892689</v>
+        <v>-0.0213006684902095</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>0.01175768887509159</v>
       </c>
       <c r="FV13" t="n">
         <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.02344680550549661</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>0.0007349640975231169</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0.009851644730548887</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.01020212477184129</v>
       </c>
       <c r="GE13" t="n">
         <v>0</v>
@@ -7832,52 +7832,52 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1502317146033935</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.4797805271022778</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.1852091826199542</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04108844196361527</v>
+        <v>-0.06778738270545873</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03236715945693479</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1423318457850901</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0.3224838527962762</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-0.2084002393092479</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.06937165925505581</v>
+        <v>-0.07830193356709939</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.009284514642745491</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -7886,52 +7886,52 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.006104861933510178</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1095507658166658</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-0.01625776455020694</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.05368039662270535</v>
+        <v>0.09311023085823629</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.04568337919831212</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01317910937195209</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.04663299610649835</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>-0.02606072695577923</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0277828088096248</v>
+        <v>-0.01321364913300729</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.03420761807749216</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -7940,106 +7940,106 @@
         <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.03071858153066788</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.01801374058238342</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>-0.06537906951489766</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.009813761309176348</v>
+        <v>-0.05546673716189235</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.008013122872320793</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
         <v>-0</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0803646079392828</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.4293223750447213</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0</v>
+        <v>0.02192520135728495</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.01263858457362574</v>
+        <v>0.08956679125250813</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.02074142674386376</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
         <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.03528120518563018</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.04104273628811778</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>-0.1886207140115058</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.01802308536601341</v>
+        <v>-0.1235864214280197</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.0231698155989924</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.02025226497627432</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>0.1354131166472439</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>0.04544095500204342</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.03911244782126998</v>
+        <v>0.168352055449901</v>
       </c>
       <c r="BQ14" t="n">
         <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.006446078604220327</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
         <v>-0</v>
@@ -8048,52 +8048,52 @@
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.05766434805705945</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>0.1981215565126227</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>0.0138029648623435</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.008264662697016281</v>
+        <v>0.06356184395951558</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.009897739362538687</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
         <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.03896939005786094</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0.09379195038677345</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0</v>
+        <v>0.008733418295613476</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.009834572111778826</v>
+        <v>-0.009780134545292835</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>-0.01312326624858545</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -8102,25 +8102,25 @@
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.007134963447862638</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>-0.01272648288517118</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>-0.07370164531575235</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.02348135231499203</v>
+        <v>-0.07117424787767769</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0.0153384757948371</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
         <v>-0</v>
@@ -8129,25 +8129,25 @@
         <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.03713425493699191</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>-0</v>
+        <v>-0.06445219164809565</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>0.04077977417022122</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.00274766571684258</v>
+        <v>-0.01888159809260791</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0.007925042517808697</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
         <v>-0</v>
@@ -8156,133 +8156,133 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.006586260558077298</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0.04855299175287207</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>0.04524326199585982</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.001730707200393694</v>
+        <v>0.03123435189189423</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0.003644016701377178</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0117712834034612</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.05679164838207558</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0</v>
+        <v>0.009947891907231042</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.02933206510682802</v>
+        <v>-0.04746127824205065</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.02656155836184493</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0.002625736594147004</v>
+        <v>-0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>-0.09817146471382365</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>-0.01052330853337616</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.007065640001820883</v>
+        <v>0.04955009235961691</v>
       </c>
       <c r="EB14" t="n">
         <v>-0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0.00115332432502057</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.06274552087302489</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0.07830053880581145</v>
       </c>
       <c r="EH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0.01641333602679758</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.002732599674237131</v>
+        <v>0.06094548667999357</v>
       </c>
       <c r="EK14" t="n">
         <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>-0.02035567138300036</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.01613030350507389</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0.002193325195148521</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>0</v>
+        <v>0.007714535535193488</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.05029742291131287</v>
+        <v>0.02997228094498673</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.00344880048234895</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
         <v>0</v>
@@ -8291,267 +8291,267 @@
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.03431147272184904</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0.06453247484248251</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0</v>
+        <v>0.006369784534682374</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.002342123887638319</v>
+        <v>0.01325910691278161</v>
       </c>
       <c r="FC14" t="n">
         <v>-0</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0.008063219250546646</v>
+        <v>-0</v>
       </c>
       <c r="FE14" t="n">
         <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.03705717694993459</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0.05272781888620235</v>
       </c>
       <c r="FI14" t="n">
         <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0</v>
+        <v>0.007992074326585639</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.02199764925544067</v>
+        <v>0.05286821467286446</v>
       </c>
       <c r="FL14" t="n">
         <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.003793109618260624</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
         <v>-0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.00670728731391854</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0.043228319813299</v>
       </c>
       <c r="FR14" t="n">
         <v>0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0</v>
+        <v>0.01875773640838895</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.004397676660394307</v>
+        <v>-0.0627179700324834</v>
       </c>
       <c r="FU14" t="n">
         <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.003931750897255845</v>
+        <v>-0</v>
       </c>
       <c r="FW14" t="n">
         <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.02562005030461711</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>0.05432453257358329</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0</v>
+        <v>-0.110116341728181</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.01645104702529567</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3855600787687149</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0.3915996649459041</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2565710027658792</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1225961767343989</v>
+        <v>-0.09072086468595275</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.2830721672286869</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4008864363140079</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>0.3528816317886258</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.2559534241902988</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0687687361771064</v>
+        <v>-0.02483734293724342</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.2585680256594056</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02003100475653988</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.04064447962836121</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05319831676967052</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.1228896906993351</v>
+        <v>-0.06130311767029282</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>7.049077711911252e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.007316662053797333</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.007899036486356779</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.005691922426787292</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.04936316519523026</v>
+        <v>0.01368500499271937</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0.01526120556275904</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.08417295230106446</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.05775921626898211</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.0505559403556378</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.03254994509576392</v>
+        <v>-0.007485496319355423</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>-0.07375764687103406</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.1836381491008675</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.2541213184003214</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.146321676040699</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.03311477096251247</v>
+        <v>-0.05511290217264957</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.1452949888226114</v>
       </c>
       <c r="AZ15" t="n">
         <v>-0</v>
@@ -8563,22 +8563,22 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.04892072143057029</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.09172253198905023</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.07486633720755059</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.1520704240415097</v>
+        <v>-0.06623352065693931</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.09082033722312603</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8590,49 +8590,49 @@
         <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.0157744076350555</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.08797427982319929</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.08705716781246527</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.1316687655888314</v>
+        <v>0.02147090339613198</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0.03016701410453274</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.1879213765641639</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.1439991914957534</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.09531538738455583</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.02192806289763962</v>
+        <v>-0.05020931203809727</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>-0.07473641797218669</v>
       </c>
       <c r="CA15" t="n">
         <v>-0</v>
@@ -8641,25 +8641,25 @@
         <v>-0</v>
       </c>
       <c r="CC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0.08748279689840673</v>
+        <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.06473798834613056</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.05762963693677377</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.004762138534226637</v>
+        <v>-0.006984513341847715</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>0.06565947616930808</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
@@ -8671,49 +8671,49 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0.007087367001413241</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.005130152598004254</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0.02782969812237442</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.05899284656723723</v>
+        <v>-0.007291953387249714</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.05247531358054943</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0.0783377010487956</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.0558926493629594</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.05666105456782813</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.03389994739063809</v>
+        <v>-0.00379884336141284</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0.06898881540297949</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
@@ -8725,130 +8725,130 @@
         <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0.02457747783665578</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0.06135915175399909</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.0225882975912334</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
         <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01238013801123103</v>
+        <v>0.08415556159940454</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>-0.001882910752174652</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
         <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.004879142171379835</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.02198602906121881</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0.03423437787509573</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.03522971920467365</v>
+        <v>0.02709105493686355</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0.01557499573893865</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
         <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0.02285675930506822</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.04577995684550556</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0.001599325642307928</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.01867174772677894</v>
+        <v>0.02446729040975276</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0.03628187795870894</v>
       </c>
       <c r="EC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED15" t="n">
         <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0.1395995028132998</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.0625351846790997</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.06595656253910505</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.004411655468444141</v>
+        <v>0.01212071641359689</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.07125238700988845</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0.04980454643962695</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0.03925482114581458</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0.03972266195588332</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.02549380816087115</v>
+        <v>-0.02849246186004278</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.01543461448412817</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
@@ -8857,25 +8857,25 @@
         <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0.0831786958605434</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.05526825397540951</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.05353630977355714</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.02375978627441704</v>
+        <v>-0.002552967613460943</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0.06744410034248326</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
@@ -8887,67 +8887,67 @@
         <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.04716705777661438</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.0150882359174045</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.06643153313390182</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
         <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.03006296796581892</v>
+        <v>7.343728946793379e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>0.04318257916738885</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0.003933823579208729</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>-0.001735847605024572</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.04060980321481744</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
         <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.03231521112219491</v>
+        <v>-0.0445592454591066</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>0.03884764812886873</v>
       </c>
       <c r="FV15" t="n">
         <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
         <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.03565983887067767</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.02345443647110619</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.04053071306119713</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
         <v>0</v>
@@ -8956,10 +8956,10 @@
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>-0.03031004375529048</v>
       </c>
       <c r="GE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF15" t="n">
         <v>-0</v>
@@ -8970,22 +8970,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.210184121418979</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.1459864676925804</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.07079187879872159</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05844250900631317</v>
+        <v>-0.04644232604711433</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.0833227915646564</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -8994,25 +8994,25 @@
         <v>-0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2061557924738316</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1296064731831525</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.07167621510752568</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.02778400433613519</v>
+        <v>-0.03871110240628067</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0.07995334038661481</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9024,79 +9024,79 @@
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.006422528024808622</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0.01521047641337729</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.02274007686422785</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.06608420428788661</v>
+        <v>-0.002830845724631298</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.01529460053382572</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.004823619342571793</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>-0.006539045137681568</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0005058658825352419</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.03302448209388784</v>
+        <v>0.01102629227921019</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>-0.0001558048595554314</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.03266149839411916</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.01297094787824033</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.009746817879642435</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.0211089506698078</v>
+        <v>-0.01178361479959298</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0</v>
+        <v>-0.009834037136126707</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -9105,25 +9105,25 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.09169229082671949</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.1005014334273454</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.04114384314987225</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.003553974933024482</v>
+        <v>-0.02505645121621535</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>-0.03819922045526743</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
         <v>-0</v>
@@ -9132,22 +9132,22 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.02996375497042707</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.04070445156340922</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.03026577252512385</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.05225696487786548</v>
+        <v>-0.04376064837965007</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0</v>
+        <v>-0.058763007623939</v>
       </c>
       <c r="BI16" t="n">
         <v>0</v>
@@ -9156,52 +9156,52 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.009996049991510807</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.04344680260462486</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.02964058795555021</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.05845975716807084</v>
+        <v>0.02865433732548747</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0</v>
+        <v>0.01632526842713121</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.08603360608200532</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.04763348228080407</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0.01349147594679944</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.01822910935502535</v>
+        <v>-0.005637753028236802</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0</v>
+        <v>-0.01131348686379291</v>
       </c>
       <c r="CA16" t="n">
         <v>-0</v>
@@ -9213,130 +9213,130 @@
         <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0.04651366134410805</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0.02232693483819628</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.01700779927340858</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.0009027808530136655</v>
+        <v>0.003714059178834083</v>
       </c>
       <c r="CI16" t="n">
-        <v>0</v>
+        <v>0.02225706331981295</v>
       </c>
       <c r="CJ16" t="n">
         <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0.01282859035410581</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>-0.01594930237186459</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0.006218285184572473</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.04014673566855655</v>
+        <v>0.009295881439115073</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>-0.004410816959995088</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
         <v>-0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0.04326519375885955</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>-0.015590898225283</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.01924838144309991</v>
+        <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.0138896410510524</v>
+        <v>0.005758420897159645</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0</v>
+        <v>0.02166772380915599</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0.01919687306485334</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.03382510995906039</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.006406482065334781</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.01645374661414558</v>
+        <v>0.02238230506447435</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0</v>
+        <v>-0.0004314575866276734</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.005873197576963063</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.01137881013406565</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.007565104932529695</v>
+        <v>0</v>
       </c>
       <c r="DQ16" t="n">
         <v>-0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.01449626025425627</v>
+        <v>0.00824617705764065</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0</v>
+        <v>-0.01363273697851866</v>
       </c>
       <c r="DT16" t="n">
         <v>0</v>
@@ -9345,25 +9345,25 @@
         <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0.008616263648681677</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.02474049572910414</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0.00425306424746434</v>
+        <v>-0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.007942432934893452</v>
+        <v>0.01455239921255093</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0</v>
+        <v>0.005100640975322824</v>
       </c>
       <c r="EC16" t="n">
         <v>-0</v>
@@ -9375,49 +9375,49 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0.06783497634323926</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.01920193022291034</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.01441906811482802</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.004987503182020329</v>
+        <v>0.003703542656038597</v>
       </c>
       <c r="EK16" t="n">
-        <v>0</v>
+        <v>0.01933329720553396</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0.03216104525515422</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0.004827386171694094</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.02647333584465951</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
         <v>0</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.0009512906774492832</v>
+        <v>0.009454003317658223</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0</v>
+        <v>0.006505189430166875</v>
       </c>
       <c r="EU16" t="n">
         <v>-0</v>
@@ -9426,97 +9426,97 @@
         <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0.04257626047147672</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.01504456405110235</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.01638794211399687</v>
+        <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.007602070064713523</v>
+        <v>0.007587556470776972</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0</v>
+        <v>0.02633074701446189</v>
       </c>
       <c r="FD16" t="n">
         <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.02616218758945147</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>-0.01373427251682238</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.01282178444050972</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
         <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.02064439795464997</v>
+        <v>0.008850068795594896</v>
       </c>
       <c r="FL16" t="n">
-        <v>0</v>
+        <v>0.01677827084117568</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.003550632212998215</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>0.002956938044557995</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.01364551075816774</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
         <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.025496444539318</v>
+        <v>-0.0208663456707841</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0</v>
+        <v>0.006382432835950882</v>
       </c>
       <c r="FV16" t="n">
         <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.01943073247691489</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0.006444098791096322</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0.005428741180725827</v>
+        <v>-0</v>
       </c>
       <c r="GB16" t="n">
         <v>-0</v>
@@ -9525,10 +9525,10 @@
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0</v>
+        <v>-0.006334992924899746</v>
       </c>
       <c r="GE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF16" t="n">
         <v>-0</v>
